--- a/biology/Zoologie/Goura_de_Scheepmaker/Goura_de_Scheepmaker.xlsx
+++ b/biology/Zoologie/Goura_de_Scheepmaker/Goura_de_Scheepmaker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Goura scheepmakeri
 Le Goura de Scheepmaker (Goura scheepmakeri) est une espèce d'oiseau appartenant à la famille des Columbidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Goura scheepmakeri est la plus grande espèce de Columbiformes. Cet oiseau se distingue des deux autres espèces du genre Goura par le ventre et la poitrine marron bordeaux. Il mesure 73 centimètres de longueur pour une envergure de 75 centimètres et une masse avoisinant les 2,2 kilogrammes.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Goura scheepmakeri est endémique du sud de la Nouvelle-Guinée.
 </t>
@@ -574,7 +590,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par 2 sous-espèces :
 Goura scheepmakeri scheepmakeri Finsch, 1876 ;
@@ -606,7 +624,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Goura de Scheepmaker se nourrit de fruits, de graines et de petits crabes.
 </t>
@@ -639,10 +659,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comportement
-Goura scheepmakeri est monogames ; les couples sont fidèles toute leur vie. Comme chez les autres espèces de pigeons, les deux parents nourrissent leur petit en régurgitant un lait riche en protéines provenant de leur jabot.
-Couvée
-La femelle Goura de Scheepmaker pond un seul œuf qu'elle couve environ 29 jours.
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goura scheepmakeri est monogames ; les couples sont fidèles toute leur vie. Comme chez les autres espèces de pigeons, les deux parents nourrissent leur petit en régurgitant un lait riche en protéines provenant de leur jabot.
 </t>
         </is>
       </c>
@@ -668,15 +691,92 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Couvée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle Goura de Scheepmaker pond un seul œuf qu'elle couve environ 29 jours.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Goura_de_Scheepmaker</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Goura_de_Scheepmaker</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Statut et conservation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Menaces
-Le Goura de Scheepmaker possède une chair très appréciée. Il est donc braconné pour sa viande, mais aussi pour ses plumes. Ayant déjà disparu des zones habitées, il vit désormais loin des villages. Il est également affecté par la déforestation et la disparition de son habitat.
-Sensibilisation
-Espèce emblématique de la Nouvelle-Guinée, le Goura de Scheepmaker est protégé et une sensibilisation des populations locales aide à sauvegarder et protéger l'espèce.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Menaces</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Goura de Scheepmaker possède une chair très appréciée. Il est donc braconné pour sa viande, mais aussi pour ses plumes. Ayant déjà disparu des zones habitées, il vit désormais loin des villages. Il est également affecté par la déforestation et la disparition de son habitat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Goura_de_Scheepmaker</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Goura_de_Scheepmaker</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Statut et conservation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sensibilisation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce emblématique de la Nouvelle-Guinée, le Goura de Scheepmaker est protégé et une sensibilisation des populations locales aide à sauvegarder et protéger l'espèce.
 </t>
         </is>
       </c>
